--- a/Analyzed/raw/data_2012.xlsx
+++ b/Analyzed/raw/data_2012.xlsx
@@ -537,13 +537,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -610,13 +610,13 @@
         <v>2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -686,19 +686,19 @@
         <v>3</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
         <v>0</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -847,22 +847,22 @@
         <v>3</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>1</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>넥센 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B7">
@@ -886,14 +886,38 @@
       <c r="H7">
         <v>0.469</v>
       </c>
+      <c r="I7">
+        <v>38.98</v>
+      </c>
+      <c r="J7">
+        <v>2218</v>
+      </c>
+      <c r="K7">
+        <v>1477.852</v>
+      </c>
+      <c r="L7">
+        <v>554</v>
+      </c>
+      <c r="M7">
+        <v>68.57190322808596</v>
+      </c>
+      <c r="N7">
+        <v>807.7</v>
+      </c>
+      <c r="O7">
+        <v>916.73</v>
+      </c>
+      <c r="P7">
+        <v>2860.2</v>
+      </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>2</v>
@@ -902,13 +926,13 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>2</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -966,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>4</v>
@@ -978,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>4</v>
@@ -1042,19 +1066,19 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>5</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>3</v>
